--- a/Entregas/Tablas del Proyecto 1.xlsx
+++ b/Entregas/Tablas del Proyecto 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabas\Documents\GitHub\Proyecto1_Algos2\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BC8B58-9464-4290-9EA7-DAB5C04510E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E7B1F9-58AA-49A9-8468-207D5CB79052}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E35210F0-63D7-474B-A86F-AC6B57412786}"/>
+    <workbookView xWindow="8250" yWindow="630" windowWidth="12225" windowHeight="9195" xr2:uid="{E35210F0-63D7-474B-A86F-AC6B57412786}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="107">
   <si>
     <t>N</t>
   </si>
@@ -307,6 +307,141 @@
   </si>
   <si>
     <t>279,01s</t>
+  </si>
+  <si>
+    <t>1,04s</t>
+  </si>
+  <si>
+    <t>0,54s</t>
+  </si>
+  <si>
+    <t>4,73s</t>
+  </si>
+  <si>
+    <t>2,43s</t>
+  </si>
+  <si>
+    <t>3,77s</t>
+  </si>
+  <si>
+    <t>18,88s</t>
+  </si>
+  <si>
+    <t>10,81s</t>
+  </si>
+  <si>
+    <t>13,03s</t>
+  </si>
+  <si>
+    <t>0,17s</t>
+  </si>
+  <si>
+    <t>77,38s</t>
+  </si>
+  <si>
+    <t>38,01s</t>
+  </si>
+  <si>
+    <t>50,04s</t>
+  </si>
+  <si>
+    <t>0,2s</t>
+  </si>
+  <si>
+    <t>0,31s</t>
+  </si>
+  <si>
+    <t>0,41s</t>
+  </si>
+  <si>
+    <t>277,91s</t>
+  </si>
+  <si>
+    <t>0,77s</t>
+  </si>
+  <si>
+    <t>144,83s</t>
+  </si>
+  <si>
+    <t>187,37s</t>
+  </si>
+  <si>
+    <t>0,43s</t>
+  </si>
+  <si>
+    <t>1,10s</t>
+  </si>
+  <si>
+    <t>4,33s</t>
+  </si>
+  <si>
+    <t>17,62s</t>
+  </si>
+  <si>
+    <t>72,78s</t>
+  </si>
+  <si>
+    <t>0,14s</t>
+  </si>
+  <si>
+    <t>295,98s</t>
+  </si>
+  <si>
+    <t>0,22s</t>
+  </si>
+  <si>
+    <t>0,23s</t>
+  </si>
+  <si>
+    <t>0,28s</t>
+  </si>
+  <si>
+    <t>1,46s</t>
+  </si>
+  <si>
+    <t>0,38s</t>
+  </si>
+  <si>
+    <t>5,70s</t>
+  </si>
+  <si>
+    <t>1,51s</t>
+  </si>
+  <si>
+    <t>24,89s</t>
+  </si>
+  <si>
+    <t>6,24s</t>
+  </si>
+  <si>
+    <t>100,62s</t>
+  </si>
+  <si>
+    <t>24,81s</t>
+  </si>
+  <si>
+    <t>0,58s</t>
+  </si>
+  <si>
+    <t>0,27s</t>
+  </si>
+  <si>
+    <t>288,97s</t>
+  </si>
+  <si>
+    <t>98,90s</t>
+  </si>
+  <si>
+    <t>0,68s</t>
+  </si>
+  <si>
+    <t>1,22s</t>
+  </si>
+  <si>
+    <t>0,59s</t>
+  </si>
+  <si>
+    <t>0,69s</t>
   </si>
 </sst>
 </file>
@@ -988,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B6C03D-1AB5-474A-92D4-DD82D34547F7}">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,66 +1552,146 @@
       <c r="B20" s="12">
         <v>4096</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>8192</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>16384</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="2"/>
+      <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>32768</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
+      <c r="C23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>65536</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
+      <c r="C24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1525,66 +1740,146 @@
       <c r="B28" s="12">
         <v>4096</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
+      <c r="C28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>8192</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
+      <c r="C29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>16384</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="2"/>
+      <c r="C30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>32768</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="2"/>
+      <c r="C31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>65536</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
+      <c r="C32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1633,66 +1928,146 @@
       <c r="B36" s="12">
         <v>4096</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
+      <c r="C36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>8192</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
+      <c r="C37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>16384</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
+      <c r="C38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
         <v>32768</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="2"/>
+      <c r="C39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>65536</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="4"/>
+      <c r="C40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
